--- a/Result/CSFSBasedResult.xlsx
+++ b/Result/CSFSBasedResult.xlsx
@@ -471,28 +471,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6989407480966567</v>
+        <v>0.7033267130089375</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6997015915119362</v>
+        <v>0.7041472760823385</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6989399454426105</v>
+        <v>0.7033256570757414</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6978814961933135</v>
+        <v>0.7021079714724202</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3021185038066865</v>
+        <v>0.2978920285275798</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3</v>
+        <v>0.2954545454545454</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -695,28 +695,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7441244620986428</v>
+        <v>0.7245945051307514</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7450109760789373</v>
+        <v>0.7255196594039569</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7441232733706565</v>
+        <v>0.7245895555359853</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7427943787427401</v>
+        <v>0.7219162829887755</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2572056212572599</v>
+        <v>0.2780837170112245</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2545454545454545</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -823,28 +823,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>0.509090909090909</v>
+        <v>0.55</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5038066865276398</v>
+        <v>0.5369910625620655</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4985857213438735</v>
+        <v>0.4825178868251788</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5037789737393388</v>
+        <v>0.5368334646967085</v>
       </c>
       <c r="G13" t="n">
-        <v>0.509090909090909</v>
+        <v>0.55</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4985224639643707</v>
+        <v>0.5239821251241311</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5014775360356294</v>
+        <v>0.4760178748758689</v>
       </c>
       <c r="J13" t="n">
-        <v>0.490909090909091</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
